--- a/results.xlsx
+++ b/results.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,99 +583,197 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>transfer2_modular_gnn_random</t>
+          <t>transfer_e2e_nlm_fixed</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4138</v>
+        <v>0.7197</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3864</v>
+        <v>0.2451</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4118</v>
+        <v>0.7353</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3598</v>
+        <v>0.242</v>
       </c>
       <c r="F4" t="n">
-        <v>0.402</v>
+        <v>0.7861</v>
       </c>
       <c r="G4" t="n">
-        <v>0.338</v>
+        <v>0.4528</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4126</v>
+        <v>0.7788</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3544</v>
+        <v>0.4175</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4525</v>
+        <v>0.7726</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3025</v>
+        <v>0.4137</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4961</v>
+        <v>0.7491</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2452</v>
+        <v>0.3833</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4715</v>
+        <v>0.7324000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2701</v>
+        <v>0.4486</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>transfer2_modular_gnn_fixed</t>
+          <t>transfer_modular_nlm_random</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.501</v>
+        <v>0.2224</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2357</v>
+        <v>0.2111</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4975</v>
+        <v>0.3218</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2557</v>
+        <v>0.4188</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4423</v>
+        <v>0.2072</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3367</v>
+        <v>0.2553</v>
       </c>
       <c r="H5" t="n">
+        <v>0.3448</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2372</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3214</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4159</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.2693</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4861</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.2419</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>transfer_modular_nlm_fixed</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2365</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1653</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.536</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.2613</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.4518</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.465</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.2257</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.4864</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.2738</v>
+      <c r="E6" t="n">
+        <v>0.1739</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3785</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2883</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2263</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4704</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2077</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4927</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2219</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.4515</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2129</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>transfer_e2e_nlm_random</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7177</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2441</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7363</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2625</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7189</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3617</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6928</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5093</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6954</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.5138</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.6723</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5254</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.7083</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.4692</v>
       </c>
     </row>
   </sheetData>
